--- a/2007_dengue_extracted.xlsx
+++ b/2007_dengue_extracted.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39509FA-A113-2145-BCEE-231FDFB9BC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6816"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="6820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -37,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
-    <t>Reporting areas</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -311,12 +298,15 @@
   </si>
   <si>
     <t>Bungkan</t>
+  </si>
+  <si>
+    <t>Reporting_areas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,7 +443,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,59 +759,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -854,15 +842,15 @@
         <v>15</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3">
         <v>9</v>
@@ -901,9 +889,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3">
         <v>600</v>
@@ -942,50 +930,50 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3">
         <v>14</v>
@@ -1024,9 +1012,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3">
         <v>24</v>
@@ -1065,9 +1053,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -1106,9 +1094,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3">
         <v>13</v>
@@ -1147,9 +1135,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3">
         <v>13</v>
@@ -1188,9 +1176,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1229,18 +1217,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -1270,15 +1258,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3">
         <v>7</v>
@@ -1311,9 +1299,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3">
         <v>30</v>
@@ -1352,9 +1340,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3">
         <v>38</v>
@@ -1393,9 +1381,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3">
         <v>16</v>
@@ -1434,9 +1422,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3">
         <v>12</v>
@@ -1475,9 +1463,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3">
         <v>30</v>
@@ -1516,9 +1504,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="3">
         <v>10</v>
@@ -1557,9 +1545,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -1598,12 +1586,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -1639,15 +1627,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3">
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
@@ -1680,9 +1668,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3">
         <v>9</v>
@@ -1721,21 +1709,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="3">
         <v>9</v>
@@ -1759,15 +1747,15 @@
         <v>8</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -1803,9 +1791,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="3">
         <v>6</v>
@@ -1844,9 +1832,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3">
         <v>6</v>
@@ -1885,9 +1873,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3">
         <v>52</v>
@@ -1926,9 +1914,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -1958,18 +1946,18 @@
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3">
         <v>32</v>
@@ -2008,9 +1996,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3">
         <v>17</v>
@@ -2049,9 +2037,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="3">
         <v>67</v>
@@ -2090,12 +2078,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -2131,9 +2119,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="3">
         <v>38</v>
@@ -2172,21 +2160,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="3">
         <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="3">
         <v>11</v>
@@ -2210,12 +2198,12 @@
         <v>2</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="3">
         <v>7</v>
@@ -2254,9 +2242,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3">
         <v>55</v>
@@ -2295,9 +2283,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3">
         <v>14</v>
@@ -2336,9 +2324,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3">
         <v>6</v>
@@ -2377,9 +2365,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="3">
         <v>82</v>
@@ -2418,9 +2406,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="3">
         <v>14</v>
@@ -2459,9 +2447,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" s="3">
         <v>12</v>
@@ -2500,18 +2488,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
@@ -2538,12 +2526,12 @@
         <v>1</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="3">
         <v>10</v>
@@ -2582,9 +2570,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3">
         <v>4</v>
@@ -2623,9 +2611,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="3">
         <v>7</v>
@@ -2664,9 +2652,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="3">
         <v>9</v>
@@ -2705,15 +2693,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" s="3">
         <v>8</v>
@@ -2746,9 +2734,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="3">
         <v>5</v>
@@ -2787,9 +2775,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3">
         <v>6</v>
@@ -2828,9 +2816,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="3">
         <v>6</v>
@@ -2869,9 +2857,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="3">
         <v>10</v>
@@ -2910,9 +2898,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="3">
         <v>27</v>
@@ -2951,9 +2939,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3">
         <v>18</v>
@@ -2992,9 +2980,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="3">
         <v>25</v>
@@ -3033,9 +3021,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="3">
         <v>20</v>
@@ -3074,9 +3062,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="3">
         <v>7</v>
@@ -3115,9 +3103,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="3">
         <v>119</v>
@@ -3156,9 +3144,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59" s="3">
         <v>119</v>
@@ -3197,9 +3185,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="3">
         <v>9</v>
@@ -3238,9 +3226,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="3">
         <v>3</v>
@@ -3279,15 +3267,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B62" s="3">
         <v>3</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -3320,9 +3308,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>14</v>
@@ -3361,9 +3349,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="3">
         <v>2</v>
@@ -3402,9 +3390,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" s="3">
         <v>158</v>
@@ -3443,9 +3431,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66" s="3">
         <v>4</v>
@@ -3484,9 +3472,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" s="3">
         <v>37</v>
@@ -3525,9 +3513,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="3">
         <v>55</v>
@@ -3566,9 +3554,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="3">
         <v>61</v>
@@ -3607,9 +3595,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70" s="3">
         <v>5</v>
@@ -3648,9 +3636,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" s="3">
         <v>5</v>
@@ -3689,9 +3677,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B72" s="3">
         <v>13</v>
@@ -3730,9 +3718,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="3">
         <v>14</v>
@@ -3771,9 +3759,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74" s="3">
         <v>13</v>
@@ -3812,9 +3800,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" s="3">
         <v>7</v>
@@ -3853,9 +3841,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76" s="3">
         <v>12</v>
@@ -3894,9 +3882,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" s="3">
         <v>55</v>
@@ -3935,9 +3923,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="9">
         <v>3</v>
@@ -3970,17 +3958,17 @@
         <v>3</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M78" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B79" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M78">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M78">
     <sortCondition ref="A78"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/2007_dengue_extracted.xlsx
+++ b/2007_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39509FA-A113-2145-BCEE-231FDFB9BC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F39509FA-A113-2145-BCEE-231FDFB9BC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84627251-CFA3-4877-8C4E-DFE46B281A56}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="6820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -42,18 +42,9 @@
     <t>May</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>Aug</t>
   </si>
   <si>
-    <t>Sept</t>
-  </si>
-  <si>
     <t>Oct</t>
   </si>
   <si>
@@ -301,6 +292,15 @@
   </si>
   <si>
     <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -464,7 +464,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -762,13 +762,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -786,30 +788,30 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -842,15 +844,15 @@
         <v>15</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3">
         <v>9</v>
@@ -889,9 +891,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3">
         <v>600</v>
@@ -930,50 +932,50 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3">
         <v>14</v>
@@ -1012,9 +1014,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3">
         <v>24</v>
@@ -1053,9 +1055,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -1094,9 +1096,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" s="3">
         <v>13</v>
@@ -1135,9 +1137,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3">
         <v>13</v>
@@ -1176,9 +1178,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1217,18 +1219,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -1258,15 +1260,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3">
         <v>7</v>
@@ -1299,9 +1301,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="3">
         <v>30</v>
@@ -1340,9 +1342,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3">
         <v>38</v>
@@ -1381,9 +1383,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3">
         <v>16</v>
@@ -1422,9 +1424,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3">
         <v>12</v>
@@ -1463,9 +1465,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3">
         <v>30</v>
@@ -1504,9 +1506,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3">
         <v>10</v>
@@ -1545,9 +1547,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -1586,12 +1588,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -1627,15 +1629,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3">
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
@@ -1668,9 +1670,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3">
         <v>9</v>
@@ -1709,21 +1711,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F24" s="3">
         <v>9</v>
@@ -1747,15 +1749,15 @@
         <v>8</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -1791,9 +1793,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3">
         <v>6</v>
@@ -1832,9 +1834,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" s="3">
         <v>6</v>
@@ -1873,9 +1875,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3">
         <v>52</v>
@@ -1914,9 +1916,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -1946,18 +1948,18 @@
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B30" s="3">
         <v>32</v>
@@ -1996,9 +1998,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3">
         <v>17</v>
@@ -2037,9 +2039,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B32" s="3">
         <v>67</v>
@@ -2078,12 +2080,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -2119,9 +2121,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3">
         <v>38</v>
@@ -2160,21 +2162,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D35" s="3">
         <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F35" s="3">
         <v>11</v>
@@ -2198,12 +2200,12 @@
         <v>2</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" s="3">
         <v>7</v>
@@ -2242,9 +2244,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3">
         <v>55</v>
@@ -2283,9 +2285,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3">
         <v>14</v>
@@ -2324,9 +2326,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B39" s="3">
         <v>6</v>
@@ -2365,9 +2367,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B40" s="3">
         <v>82</v>
@@ -2406,9 +2408,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B41" s="3">
         <v>14</v>
@@ -2447,9 +2449,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3">
         <v>12</v>
@@ -2488,18 +2490,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
@@ -2526,12 +2528,12 @@
         <v>1</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B44" s="3">
         <v>10</v>
@@ -2570,9 +2572,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" s="3">
         <v>4</v>
@@ -2611,9 +2613,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B46" s="3">
         <v>7</v>
@@ -2652,9 +2654,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B47" s="3">
         <v>9</v>
@@ -2693,15 +2695,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D48" s="3">
         <v>8</v>
@@ -2734,9 +2736,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B49" s="3">
         <v>5</v>
@@ -2775,9 +2777,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" s="3">
         <v>6</v>
@@ -2816,9 +2818,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B51" s="3">
         <v>6</v>
@@ -2857,9 +2859,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B52" s="3">
         <v>10</v>
@@ -2898,9 +2900,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3">
         <v>27</v>
@@ -2939,9 +2941,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B54" s="3">
         <v>18</v>
@@ -2980,9 +2982,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B55" s="3">
         <v>25</v>
@@ -3021,9 +3023,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B56" s="3">
         <v>20</v>
@@ -3062,9 +3064,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B57" s="3">
         <v>7</v>
@@ -3103,9 +3105,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B58" s="3">
         <v>119</v>
@@ -3144,9 +3146,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B59" s="3">
         <v>119</v>
@@ -3185,9 +3187,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B60" s="3">
         <v>9</v>
@@ -3226,9 +3228,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B61" s="3">
         <v>3</v>
@@ -3267,15 +3269,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B62" s="3">
         <v>3</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -3308,9 +3310,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B63" s="3">
         <v>14</v>
@@ -3349,9 +3351,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B64" s="3">
         <v>2</v>
@@ -3390,9 +3392,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B65" s="3">
         <v>158</v>
@@ -3431,9 +3433,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B66" s="3">
         <v>4</v>
@@ -3472,9 +3474,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B67" s="3">
         <v>37</v>
@@ -3513,9 +3515,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B68" s="3">
         <v>55</v>
@@ -3554,9 +3556,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3">
         <v>61</v>
@@ -3595,9 +3597,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B70" s="3">
         <v>5</v>
@@ -3636,9 +3638,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B71" s="3">
         <v>5</v>
@@ -3677,9 +3679,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B72" s="3">
         <v>13</v>
@@ -3718,9 +3720,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B73" s="3">
         <v>14</v>
@@ -3759,9 +3761,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B74" s="3">
         <v>13</v>
@@ -3800,9 +3802,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B75" s="3">
         <v>7</v>
@@ -3841,9 +3843,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B76" s="3">
         <v>12</v>
@@ -3882,9 +3884,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B77" s="3">
         <v>55</v>
@@ -3923,9 +3925,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B78" s="9">
         <v>3</v>
@@ -3958,13 +3960,13 @@
         <v>3</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M78" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
     </row>
   </sheetData>
